--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01018032075826947</v>
+        <v>-0.008841696880219241</v>
       </c>
       <c r="H2" t="n">
-        <v>-52.17013013669972</v>
+        <v>58.45934315889652</v>
       </c>
       <c r="I2" t="n">
-        <v>-59.28296611862294</v>
+        <v>62.16022849766961</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01053883429512147</v>
+        <v>-0.006576899149034857</v>
       </c>
       <c r="H3" t="n">
-        <v>-495.4695624463911</v>
+        <v>-346.7980192009346</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06650017306121456</v>
+        <v>0.0695887817542306</v>
       </c>
       <c r="H4" t="n">
-        <v>24.95347670684449</v>
+        <v>30.75695625604927</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07544996740368337</v>
+        <v>0.07813525272153463</v>
       </c>
       <c r="H5" t="n">
-        <v>-11.5407588526153</v>
+        <v>-8.392469865153934</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02751128207636989</v>
+        <v>0.02330844309003425</v>
       </c>
       <c r="H6" t="n">
-        <v>-50.42305977213189</v>
+        <v>-57.99682157045552</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04305197171128992</v>
+        <v>0.05022847453479166</v>
       </c>
       <c r="H7" t="n">
-        <v>-42.53566087200343</v>
+        <v>-32.95670372764148</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0149002394077092</v>
+        <v>-0.01127739867466857</v>
       </c>
       <c r="H8" t="n">
-        <v>-25.10450790241218</v>
+        <v>43.31458037627316</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02498062941682736</v>
+        <v>-0.0364331340981881</v>
       </c>
       <c r="H9" t="n">
-        <v>245.3232371544433</v>
+        <v>-403.6385431502914</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02483436201351214</v>
+        <v>-0.0239204840102908</v>
       </c>
       <c r="H10" t="n">
-        <v>-49.89915459205634</v>
+        <v>51.7428122038847</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04336574189849836</v>
+        <v>-0.03299317988135429</v>
       </c>
       <c r="H11" t="n">
-        <v>-43.88628687151394</v>
+        <v>57.30800973284027</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08777630014011556</v>
+        <v>-0.06688877039892067</v>
       </c>
       <c r="H12" t="n">
-        <v>9.985894726601007</v>
+        <v>16.18670133345872</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05399736522363419</v>
+        <v>-0.0284371108584475</v>
       </c>
       <c r="H13" t="n">
-        <v>18.19402178794918</v>
+        <v>37.75443511976125</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02553185756616901</v>
+        <v>-0.03604722246336507</v>
       </c>
       <c r="H14" t="n">
-        <v>-54.15825287488585</v>
+        <v>35.27820479000641</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06322282837826616</v>
+        <v>-0.1129826839828163</v>
       </c>
       <c r="H15" t="n">
-        <v>-25.24934983352117</v>
+        <v>-33.58353781231045</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1886616839612429</v>
+        <v>-0.1850765509281823</v>
       </c>
       <c r="H16" t="n">
-        <v>21.6319471295531</v>
+        <v>-19.32057842779158</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2043284840172018</v>
+        <v>-0.2151713304349206</v>
       </c>
       <c r="H17" t="n">
-        <v>4.086032308544401</v>
+        <v>-9.609436781394358</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.07364184810058035</v>
+        <v>-0.1022856841536194</v>
       </c>
       <c r="H18" t="n">
-        <v>-32.43806886588902</v>
+        <v>6.159085804667628</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08812905149061696</v>
+        <v>-0.09942239666312901</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02196251286900599</v>
+        <v>-12.7897774062056</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08697932938207216</v>
+        <v>0.09298792801433974</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.295777748335063</v>
+        <v>1.246462394627072</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.121742685031659</v>
+        <v>0.1137558077129102</v>
       </c>
       <c r="H21" t="n">
-        <v>61.60358816868037</v>
+        <v>51.00165317244459</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1204986229174578</v>
+        <v>0.1089143694681752</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03264614449781317</v>
+        <v>-9.584090529198875</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1660500241679365</v>
+        <v>0.1408872420304746</v>
       </c>
       <c r="H23" t="n">
-        <v>26.46746174715903</v>
+        <v>7.302916584533022</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08284810182510638</v>
+        <v>0.09256879755818202</v>
       </c>
       <c r="H24" t="n">
-        <v>-13.15060725475666</v>
+        <v>-2.960433878653323</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08241860092128248</v>
+        <v>0.08900968034045766</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.937797493515576</v>
+        <v>3.744371323034091</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03338846472039335</v>
+        <v>0.04360345113939441</v>
       </c>
       <c r="H26" t="n">
-        <v>-13.04656028961803</v>
+        <v>13.55628632717947</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0660937046306837</v>
+        <v>0.04763858243368545</v>
       </c>
       <c r="H27" t="n">
-        <v>84.47263638382834</v>
+        <v>32.96296438875197</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1059508434073678</v>
+        <v>-0.134813996806833</v>
       </c>
       <c r="H28" t="n">
-        <v>8.155273850831039</v>
+        <v>-37.61895870433569</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09671275091374797</v>
+        <v>-0.1032045074784062</v>
       </c>
       <c r="H29" t="n">
-        <v>-11.15223440304911</v>
+        <v>5.188407915644011</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1059849051199611</v>
+        <v>0.1131535914834425</v>
       </c>
       <c r="H30" t="n">
-        <v>-13.08526717216705</v>
+        <v>-7.206463400032817</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1222067648222021</v>
+        <v>0.1454207397132098</v>
       </c>
       <c r="H31" t="n">
-        <v>13.56251410270618</v>
+        <v>35.1344569879906</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05619524807950134</v>
+        <v>0.05856208660989972</v>
       </c>
       <c r="H32" t="n">
-        <v>24.89075715982865</v>
+        <v>30.15092178653018</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07695053283342479</v>
+        <v>0.07203630571909125</v>
       </c>
       <c r="H33" t="n">
-        <v>-9.336869938792287</v>
+        <v>-15.12681310892726</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01662458319191412</v>
+        <v>0.01956513803356238</v>
       </c>
       <c r="H34" t="n">
-        <v>-3667.327089210472</v>
+        <v>4298.315597182387</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03599574178970381</v>
+        <v>0.0242552020978102</v>
       </c>
       <c r="H35" t="n">
-        <v>-12.06468724076796</v>
+        <v>-40.74608060669524</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04409345055858042</v>
+        <v>0.04108053884752066</v>
       </c>
       <c r="H36" t="n">
-        <v>6.220187629143085</v>
+        <v>-1.037852810074326</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03733972096983633</v>
+        <v>0.03271243036947058</v>
       </c>
       <c r="H37" t="n">
-        <v>-11.43414754660967</v>
+        <v>-22.4095894065532</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1014034104682655</v>
+        <v>-0.1177259390867097</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.472254018213352</v>
+        <v>-13.22642334903613</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1158843611955289</v>
+        <v>-0.134496522198172</v>
       </c>
       <c r="H39" t="n">
-        <v>17.61332743953395</v>
+        <v>-36.5031773189985</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1144594589972583</v>
+        <v>0.1251232044674974</v>
       </c>
       <c r="H40" t="n">
-        <v>-13.49919171556406</v>
+        <v>-5.440245687020725</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1396072099493221</v>
+        <v>0.1467277236439117</v>
       </c>
       <c r="H41" t="n">
-        <v>10.18636350103342</v>
+        <v>15.80629896533317</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08543852426417509</v>
+        <v>0.07926477871839094</v>
       </c>
       <c r="H42" t="n">
-        <v>-9.561156120879463</v>
+        <v>-16.09622229124293</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1181958056519985</v>
+        <v>0.1012515252551641</v>
       </c>
       <c r="H43" t="n">
-        <v>11.64035518264597</v>
+        <v>-4.364150826531124</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0320542474247876</v>
+        <v>-0.01854578525252329</v>
       </c>
       <c r="H44" t="n">
-        <v>163.5085372531945</v>
+        <v>-52.45944412112994</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.02794955420812092</v>
+        <v>-0.03645411341165747</v>
       </c>
       <c r="H45" t="n">
-        <v>-23.55211613279657</v>
+        <v>0.2903657130059288</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07294483698783129</v>
+        <v>0.06406108527567182</v>
       </c>
       <c r="H46" t="n">
-        <v>33.66077667107488</v>
+        <v>17.38259712290056</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05654021218531839</v>
+        <v>0.05768564042861174</v>
       </c>
       <c r="H47" t="n">
-        <v>40.05317262410591</v>
+        <v>42.89046051684831</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.02518302349744938</v>
+        <v>-0.01912052714261258</v>
       </c>
       <c r="H48" t="n">
-        <v>-16.39197288500194</v>
+        <v>36.51955445482853</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.01621303524643599</v>
+        <v>-0.0305701263633033</v>
       </c>
       <c r="H49" t="n">
-        <v>-53.19997461711621</v>
+        <v>11.75725778582653</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08792705037956809</v>
+        <v>0.08907116397063616</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.34448297500462</v>
+        <v>-1.073781822301794</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1017750302320583</v>
+        <v>0.09536550832200159</v>
       </c>
       <c r="H51" t="n">
-        <v>55.29740199677015</v>
+        <v>45.51718283688778</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04360118960142246</v>
+        <v>0.03896721352129244</v>
       </c>
       <c r="H52" t="n">
-        <v>196.541758543777</v>
+        <v>165.0250171793001</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04230329473373187</v>
+        <v>0.03824585009819171</v>
       </c>
       <c r="H53" t="n">
-        <v>50.16237228932538</v>
+        <v>35.75981769540429</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05582794394321623</v>
+        <v>0.05443579880839115</v>
       </c>
       <c r="H54" t="n">
-        <v>187.7293009848397</v>
+        <v>180.55438250817</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05774307622898091</v>
+        <v>0.06425813316200425</v>
       </c>
       <c r="H55" t="n">
-        <v>-11.49482704224266</v>
+        <v>-1.508933003617353</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07019859900952996</v>
+        <v>0.08013014155361288</v>
       </c>
       <c r="H56" t="n">
-        <v>9.380889486310485</v>
+        <v>24.8558558356453</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07179484257730412</v>
+        <v>0.08740799458784909</v>
       </c>
       <c r="H57" t="n">
-        <v>-5.242432367314763</v>
+        <v>15.36440030323003</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02150135519715443</v>
+        <v>0.02570415867784352</v>
       </c>
       <c r="H58" t="n">
-        <v>-24.49387034774891</v>
+        <v>-9.734920430125115</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02633574748019567</v>
+        <v>0.03206307825072027</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.952823937445497</v>
+        <v>19.36985197476823</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04481456966666784</v>
+        <v>0.03543272181146648</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.4261454802066581</v>
+        <v>-21.27174905085713</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0379396595769492</v>
+        <v>0.04045405491927993</v>
       </c>
       <c r="H61" t="n">
-        <v>-24.16329063381658</v>
+        <v>-19.13732385039626</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.002522774222808826</v>
+        <v>0.003906126987324194</v>
       </c>
       <c r="H62" t="n">
-        <v>-119.8243640748217</v>
+        <v>130.6949717573158</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>0.004747482761036823</v>
+        <v>0.01676279742424763</v>
       </c>
       <c r="H63" t="n">
-        <v>14.0602163887788</v>
+        <v>302.7330688133737</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06199669451815588</v>
+        <v>0.05472049207444512</v>
       </c>
       <c r="H64" t="n">
-        <v>64.57404352011916</v>
+        <v>45.25891604535083</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04772649183688583</v>
+        <v>0.05566932016117126</v>
       </c>
       <c r="H65" t="n">
-        <v>-37.53699745873951</v>
+        <v>-27.14166172988973</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>0.001295918978195626</v>
+        <v>-0.02473102209453828</v>
       </c>
       <c r="H66" t="n">
-        <v>-120.7720952867933</v>
+        <v>-296.4099269560912</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.01121151385482873</v>
+        <v>0.01456967370860203</v>
       </c>
       <c r="H67" t="n">
-        <v>-290.2532030989078</v>
+        <v>147.2393226338144</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.005632634064852319</v>
+        <v>0.002772296473227641</v>
       </c>
       <c r="H68" t="n">
-        <v>-3382.12001481986</v>
+        <v>1515.409351474268</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01821347466887153</v>
+        <v>0.02076086250103034</v>
       </c>
       <c r="H69" t="n">
-        <v>158.5821181729787</v>
+        <v>194.7481410446875</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07899290169004371</v>
+        <v>-0.06272749776452077</v>
       </c>
       <c r="H70" t="n">
-        <v>25.38737424880181</v>
+        <v>0.4311011544701592</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.050152335201794</v>
+        <v>-0.04307504444047079</v>
       </c>
       <c r="H71" t="n">
-        <v>6.018736676049076</v>
+        <v>8.942190319384629</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.08127358118580059</v>
+        <v>0.06939156493328003</v>
       </c>
       <c r="H72" t="n">
-        <v>18.6892757578834</v>
+        <v>1.337168431259834</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07256145211643847</v>
+        <v>0.07409809735325949</v>
       </c>
       <c r="H73" t="n">
-        <v>-1.494911854140438</v>
+        <v>0.5911458264455683</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02326656564490508</v>
+        <v>0.03404937627932737</v>
       </c>
       <c r="H74" t="n">
-        <v>-63.09012639265431</v>
+        <v>-45.98437113325605</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0369066008396662</v>
+        <v>0.0375227014421228</v>
       </c>
       <c r="H75" t="n">
-        <v>39.43484390202025</v>
+        <v>41.76250045605183</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0102747471555761</v>
+        <v>0.02309495327539633</v>
       </c>
       <c r="H76" t="n">
-        <v>-40.07044009269256</v>
+        <v>34.70602876326706</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.009959385539325903</v>
+        <v>0.003729231909466206</v>
       </c>
       <c r="H77" t="n">
-        <v>-14.83559004283275</v>
+        <v>131.8893001891587</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01962445809654711</v>
+        <v>0.009456760797857008</v>
       </c>
       <c r="H78" t="n">
-        <v>672.7604043787284</v>
+        <v>272.382781848671</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.003587764206914535</v>
+        <v>0.006378456180909644</v>
       </c>
       <c r="H79" t="n">
-        <v>-153.1356636628169</v>
+        <v>194.4664929940597</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03696323829227947</v>
+        <v>0.02343227308396019</v>
       </c>
       <c r="H80" t="n">
-        <v>199.4232935708366</v>
+        <v>89.8147647987892</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03390874653298676</v>
+        <v>0.04935124588862141</v>
       </c>
       <c r="H81" t="n">
-        <v>-15.32567966949975</v>
+        <v>23.23614495797569</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03716035435143808</v>
+        <v>0.06502200319163891</v>
       </c>
       <c r="H82" t="n">
-        <v>-5.415732930268629</v>
+        <v>65.50053471298229</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0331381472729093</v>
+        <v>0.04506465064064764</v>
       </c>
       <c r="H83" t="n">
-        <v>-20.14293745390538</v>
+        <v>8.597822177285472</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01903587091057337</v>
+        <v>0.02378301773476914</v>
       </c>
       <c r="H84" t="n">
-        <v>-47.91327063648092</v>
+        <v>-34.92393313559289</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01907926597354655</v>
+        <v>0.03062055074154735</v>
       </c>
       <c r="H85" t="n">
-        <v>-38.49110984703188</v>
+        <v>-1.283618845892115</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.04610605848455406</v>
+        <v>0.02716135877084849</v>
       </c>
       <c r="H86" t="n">
-        <v>41.37655673663389</v>
+        <v>-16.71421271897798</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03917908956762325</v>
+        <v>0.03590925861329135</v>
       </c>
       <c r="H87" t="n">
-        <v>-27.43647238014864</v>
+        <v>-33.49252093526827</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06871039483493817</v>
+        <v>0.06522478989765687</v>
       </c>
       <c r="H88" t="n">
-        <v>-18.67274166278781</v>
+        <v>-22.79838660889422</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07449646659617168</v>
+        <v>0.1048347832666973</v>
       </c>
       <c r="H89" t="n">
-        <v>-17.50827743465936</v>
+        <v>16.08606758912274</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03754530135493384</v>
+        <v>-0.02369982645231962</v>
       </c>
       <c r="H90" t="n">
-        <v>-24.52880707287402</v>
+        <v>52.3601060592534</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03155231881612387</v>
+        <v>-0.01417592277081696</v>
       </c>
       <c r="H91" t="n">
-        <v>53.80828331117855</v>
+        <v>30.89654175854147</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0157815995988695</v>
+        <v>0.02858919456512893</v>
       </c>
       <c r="H92" t="n">
-        <v>-60.05528809035684</v>
+        <v>-27.63806143487405</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03684514681011916</v>
+        <v>0.03257496073239248</v>
       </c>
       <c r="H93" t="n">
-        <v>-25.13647448834849</v>
+        <v>-33.81281892027224</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.09038207276847073</v>
+        <v>0.08801768768737257</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.4146495404580394</v>
+        <v>-3.019791353543458</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.08760783510942044</v>
+        <v>0.1012621122574431</v>
       </c>
       <c r="H95" t="n">
-        <v>-15.80374491479038</v>
+        <v>-2.681185724471517</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07568666860103897</v>
+        <v>-0.07499088562415576</v>
       </c>
       <c r="H96" t="n">
-        <v>-32.44759842422275</v>
+        <v>33.06860357523239</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09506427047760048</v>
+        <v>-0.09933977630821123</v>
       </c>
       <c r="H97" t="n">
-        <v>-11.14453809958123</v>
+        <v>7.148272798977404</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1017864903684266</v>
+        <v>0.08793533800439551</v>
       </c>
       <c r="H98" t="n">
-        <v>5.22327363968252</v>
+        <v>-9.095557770556111</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1074821210862011</v>
+        <v>0.09850769729124859</v>
       </c>
       <c r="H99" t="n">
-        <v>-5.632824815630712</v>
+        <v>-13.51219129889769</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.004111502909556699</v>
+        <v>0.02206255602516873</v>
       </c>
       <c r="H100" t="n">
-        <v>-89.29813028502032</v>
+        <v>-42.57316476367198</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.004094578531157161</v>
+        <v>0.03515233166999649</v>
       </c>
       <c r="H101" t="n">
-        <v>-79.69576258924451</v>
+        <v>74.31373762601122</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0009825007571318929</v>
+        <v>-0.007189654627913592</v>
       </c>
       <c r="H102" t="n">
-        <v>-58.71868549486931</v>
+        <v>-202.0846464735361</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01994493241571592</v>
+        <v>-0.00703948713174722</v>
       </c>
       <c r="H103" t="n">
-        <v>207.3161669931789</v>
+        <v>-8.466058336789294</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.08576825282738972</v>
+        <v>0.08746789730040094</v>
       </c>
       <c r="H104" t="n">
-        <v>86.86263268946381</v>
+        <v>90.56563502882766</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08222977387915816</v>
+        <v>0.08676687263944165</v>
       </c>
       <c r="H105" t="n">
-        <v>23.74819121534964</v>
+        <v>30.57610449376367</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2547109984464583</v>
+        <v>-0.2515619522889638</v>
       </c>
       <c r="H106" t="n">
-        <v>-1.183803109481799</v>
+        <v>2.4054887336372</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2525265592929037</v>
+        <v>-0.271283067780892</v>
       </c>
       <c r="H107" t="n">
-        <v>-12.74711439836248</v>
+        <v>6.266372356926933</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1511126199338312</v>
+        <v>0.1536968776489979</v>
       </c>
       <c r="H108" t="n">
-        <v>0.05708718361185706</v>
+        <v>1.768216933228915</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1684039884018269</v>
+        <v>0.1786975918421373</v>
       </c>
       <c r="H109" t="n">
-        <v>-10.80620091417086</v>
+        <v>-5.354277798588138</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0690099516331322</v>
+        <v>0.04095850297482075</v>
       </c>
       <c r="H110" t="n">
-        <v>-4.013090699601079</v>
+        <v>-43.03024394185047</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1008653094832704</v>
+        <v>0.0809433394271234</v>
       </c>
       <c r="H111" t="n">
-        <v>54.22193742870392</v>
+        <v>23.76146657707571</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1014055608696143</v>
+        <v>0.106913837550298</v>
       </c>
       <c r="H112" t="n">
-        <v>20.45389697398749</v>
+        <v>26.99686548685239</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.09253565601373374</v>
+        <v>0.1093246763887382</v>
       </c>
       <c r="H113" t="n">
-        <v>20.14420479350082</v>
+        <v>41.9423266106458</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.008841696880219241</v>
+        <v>-7.263604365425881e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>58.45934315889652</v>
+        <v>99.65873643887437</v>
       </c>
       <c r="I2" t="n">
-        <v>62.16022849766961</v>
+        <v>113.7123678273687</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.006576899149034857</v>
+        <v>-0.004464562498637063</v>
       </c>
       <c r="H3" t="n">
-        <v>-346.7980192009346</v>
+        <v>-267.5326253746943</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0695887817542306</v>
+        <v>0.0694027075304683</v>
       </c>
       <c r="H4" t="n">
-        <v>30.75695625604927</v>
+        <v>30.40732376466878</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07813525272153463</v>
+        <v>0.06931194292583577</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.392469865153934</v>
+        <v>-18.73711699746937</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02330844309003425</v>
+        <v>0.02481334671985469</v>
       </c>
       <c r="H6" t="n">
-        <v>-57.99682157045552</v>
+        <v>-55.28489716441729</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05022847453479166</v>
+        <v>0.06615470669010877</v>
       </c>
       <c r="H7" t="n">
-        <v>-32.95670372764148</v>
+        <v>-11.69889905050175</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01127739867466857</v>
+        <v>-0.02700386280213764</v>
       </c>
       <c r="H8" t="n">
-        <v>43.31458037627316</v>
+        <v>-35.73389915167709</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0364331340981881</v>
+        <v>0.01043732664823207</v>
       </c>
       <c r="H9" t="n">
-        <v>-403.6385431502914</v>
+        <v>244.2818499592309</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0239204840102908</v>
+        <v>-0.01788502695480009</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7428122038847</v>
+        <v>63.91874411382867</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03299317988135429</v>
+        <v>-0.03792764053137304</v>
       </c>
       <c r="H11" t="n">
-        <v>57.30800973284027</v>
+        <v>50.92299480545717</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06688877039892067</v>
+        <v>-0.08445336538415334</v>
       </c>
       <c r="H12" t="n">
-        <v>16.18670133345872</v>
+        <v>-5.822174546219484</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0284371108584475</v>
+        <v>-0.04747630298729739</v>
       </c>
       <c r="H13" t="n">
-        <v>37.75443511976125</v>
+        <v>-3.920166594273661</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03604722246336507</v>
+        <v>-0.0220531375054981</v>
       </c>
       <c r="H14" t="n">
-        <v>35.27820479000641</v>
+        <v>60.40419894156155</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1129826839828163</v>
+        <v>-0.08280834849087072</v>
       </c>
       <c r="H15" t="n">
-        <v>-33.58353781231045</v>
+        <v>2.092676843403542</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1850765509281823</v>
+        <v>-0.1731293335345242</v>
       </c>
       <c r="H16" t="n">
-        <v>-19.32057842779158</v>
+        <v>-11.61809595302885</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2151713304349206</v>
+        <v>-0.1924520779598718</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.609436781394358</v>
+        <v>1.963873021779365</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1022856841536194</v>
+        <v>-0.08988648100888771</v>
       </c>
       <c r="H18" t="n">
-        <v>6.159085804667628</v>
+        <v>17.53460299481284</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.09942239666312901</v>
+        <v>-0.09154513980207261</v>
       </c>
       <c r="H19" t="n">
-        <v>-12.7897774062056</v>
+        <v>-3.853420229658592</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09298792801433974</v>
+        <v>0.09251127900624442</v>
       </c>
       <c r="H20" t="n">
-        <v>1.246462394627072</v>
+        <v>0.7274807708391302</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1137558077129102</v>
+        <v>0.1359222890243623</v>
       </c>
       <c r="H21" t="n">
-        <v>51.00165317244459</v>
+        <v>80.42586799137283</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1089143694681752</v>
+        <v>0.113599228599697</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.584090529198875</v>
+        <v>-5.694926948787179</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1408872420304746</v>
+        <v>0.1521421004554875</v>
       </c>
       <c r="H23" t="n">
-        <v>7.302916584533022</v>
+        <v>15.87487183998946</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09256879755818202</v>
+        <v>0.08960070700485552</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.960433878653323</v>
+        <v>-6.071873446858167</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08900968034045766</v>
+        <v>0.08479858341689039</v>
       </c>
       <c r="H25" t="n">
-        <v>3.744371323034091</v>
+        <v>-1.163831933564665</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04360345113939441</v>
+        <v>0.038915080937313</v>
       </c>
       <c r="H26" t="n">
-        <v>13.55628632717947</v>
+        <v>1.346383322635635</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04763858243368545</v>
+        <v>0.05327461929362835</v>
       </c>
       <c r="H27" t="n">
-        <v>32.96296438875197</v>
+        <v>48.69357873575633</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.134813996806833</v>
+        <v>-0.1350366391376188</v>
       </c>
       <c r="H28" t="n">
-        <v>-37.61895870433569</v>
+        <v>-37.84623336759003</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1032045074784062</v>
+        <v>-0.1057381185994425</v>
       </c>
       <c r="H29" t="n">
-        <v>5.188407915644011</v>
+        <v>2.860838025749983</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1131535914834425</v>
+        <v>0.1199959704308276</v>
       </c>
       <c r="H30" t="n">
-        <v>-7.206463400032817</v>
+        <v>-1.5952536013767</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1454207397132098</v>
+        <v>0.1357694532491932</v>
       </c>
       <c r="H31" t="n">
-        <v>35.1344569879906</v>
+        <v>26.16585073469734</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05856208660989972</v>
+        <v>0.06088434354119375</v>
       </c>
       <c r="H32" t="n">
-        <v>30.15092178653018</v>
+        <v>35.31200633337048</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07203630571909125</v>
+        <v>0.07288894659739759</v>
       </c>
       <c r="H33" t="n">
-        <v>-15.12681310892726</v>
+        <v>-14.12223149007443</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01956513803356238</v>
+        <v>0.02115251623457148</v>
       </c>
       <c r="H34" t="n">
-        <v>4298.315597182387</v>
+        <v>4638.937505828865</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0242552020978102</v>
+        <v>0.03833913838532235</v>
       </c>
       <c r="H35" t="n">
-        <v>-40.74608060669524</v>
+        <v>-6.339918078945052</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04108053884752066</v>
+        <v>0.04739707780524079</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.037852810074326</v>
+        <v>14.17855563054978</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03271243036947058</v>
+        <v>0.03944370557653674</v>
       </c>
       <c r="H37" t="n">
-        <v>-22.4095894065532</v>
+        <v>-6.443719514440854</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1177259390867097</v>
+        <v>-0.09335458513823897</v>
       </c>
       <c r="H38" t="n">
-        <v>-13.22642334903613</v>
+        <v>10.21345116941036</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.134496522198172</v>
+        <v>-0.1469298417221459</v>
       </c>
       <c r="H39" t="n">
-        <v>-36.5031773189985</v>
+        <v>-49.12199892052718</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1251232044674974</v>
+        <v>0.1382569108206651</v>
       </c>
       <c r="H40" t="n">
-        <v>-5.440245687020725</v>
+        <v>4.485331676984215</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1467277236439117</v>
+        <v>0.134465943164501</v>
       </c>
       <c r="H41" t="n">
-        <v>15.80629896533317</v>
+        <v>6.128568126326569</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07926477871839094</v>
+        <v>0.08859365998489337</v>
       </c>
       <c r="H42" t="n">
-        <v>-16.09622229124293</v>
+        <v>-6.221364974894925</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1012515252551641</v>
+        <v>0.1030971000519946</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.364150826531124</v>
+        <v>-2.620936465431554</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.01854578525252329</v>
+        <v>-0.05648492447405858</v>
       </c>
       <c r="H44" t="n">
-        <v>-52.45944412112994</v>
+        <v>-364.345945414595</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.03645411341165747</v>
+        <v>-0.03021904894287134</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2903657130059288</v>
+        <v>17.34457276278394</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06406108527567182</v>
+        <v>0.06583897192866135</v>
       </c>
       <c r="H46" t="n">
-        <v>17.38259712290056</v>
+        <v>20.64031515593092</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05768564042861174</v>
+        <v>0.05969428773396877</v>
       </c>
       <c r="H47" t="n">
-        <v>42.89046051684831</v>
+        <v>47.86598885190402</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01912052714261258</v>
+        <v>-0.01707687588859674</v>
       </c>
       <c r="H48" t="n">
-        <v>36.51955445482853</v>
+        <v>43.30450819466291</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0305701263633033</v>
+        <v>-0.03329897642707615</v>
       </c>
       <c r="H49" t="n">
-        <v>11.75725778582653</v>
+        <v>3.880247077499884</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08907116397063616</v>
+        <v>0.08203813939894583</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.073781822301794</v>
+        <v>-8.884957653096105</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09536550832200159</v>
+        <v>0.09902985239810383</v>
       </c>
       <c r="H51" t="n">
-        <v>45.51718283688778</v>
+        <v>51.10856525891611</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03896721352129244</v>
+        <v>0.03639724342089996</v>
       </c>
       <c r="H52" t="n">
-        <v>165.0250171793001</v>
+        <v>147.5460570880266</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03824585009819171</v>
+        <v>0.04985594862587429</v>
       </c>
       <c r="H53" t="n">
-        <v>35.75981769540429</v>
+        <v>76.97173625642986</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05443579880839115</v>
+        <v>0.06351528648852885</v>
       </c>
       <c r="H54" t="n">
-        <v>180.55438250817</v>
+        <v>227.3487736138794</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06425813316200425</v>
+        <v>0.04870810006052024</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.508933003617353</v>
+        <v>-25.34310428483078</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08013014155361288</v>
+        <v>0.07390073726769932</v>
       </c>
       <c r="H56" t="n">
-        <v>24.8558558356453</v>
+        <v>15.14942591571829</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08740799458784909</v>
+        <v>0.07177442016194174</v>
       </c>
       <c r="H57" t="n">
-        <v>15.36440030323003</v>
+        <v>-5.26938664892405</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02570415867784352</v>
+        <v>0.02609953833348479</v>
       </c>
       <c r="H58" t="n">
-        <v>-9.734920430125115</v>
+        <v>-8.34646899220537</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03206307825072027</v>
+        <v>0.03977314514211576</v>
       </c>
       <c r="H59" t="n">
-        <v>19.36985197476823</v>
+        <v>48.07419334663154</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03543272181146648</v>
+        <v>0.04480897132273275</v>
       </c>
       <c r="H60" t="n">
-        <v>-21.27174905085713</v>
+        <v>-0.4385844858400977</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04045405491927993</v>
+        <v>0.04667664607006357</v>
       </c>
       <c r="H61" t="n">
-        <v>-19.13732385039626</v>
+        <v>-6.699130100938537</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.003906126987324194</v>
+        <v>0.0142077361997599</v>
       </c>
       <c r="H62" t="n">
-        <v>130.6949717573158</v>
+        <v>211.6466676076419</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01676279742424763</v>
+        <v>0.001040063032774131</v>
       </c>
       <c r="H63" t="n">
-        <v>302.7330688133737</v>
+        <v>-75.01205995948075</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05472049207444512</v>
+        <v>0.05260995857279554</v>
       </c>
       <c r="H64" t="n">
-        <v>45.25891604535083</v>
+        <v>39.65637489294426</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05566932016117126</v>
+        <v>0.06601924458042134</v>
       </c>
       <c r="H65" t="n">
-        <v>-27.14166172988973</v>
+        <v>-13.59599075304604</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02473102209453828</v>
+        <v>-0.02646988310203395</v>
       </c>
       <c r="H66" t="n">
-        <v>-296.4099269560912</v>
+        <v>-324.2818750839603</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01456967370860203</v>
+        <v>0.006318753010000826</v>
       </c>
       <c r="H67" t="n">
-        <v>147.2393226338144</v>
+        <v>7.225751607643828</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>0.002772296473227641</v>
+        <v>0.01096155050659696</v>
       </c>
       <c r="H68" t="n">
-        <v>1515.409351474268</v>
+        <v>6287.264625560925</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02076086250103034</v>
+        <v>0.006978108513584361</v>
       </c>
       <c r="H69" t="n">
-        <v>194.7481410446875</v>
+        <v>-0.9297175257038817</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.06272749776452077</v>
+        <v>-0.06382863566296514</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4311011544701592</v>
+        <v>-1.316762094224561</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.04307504444047079</v>
+        <v>-0.06583444146754332</v>
       </c>
       <c r="H71" t="n">
-        <v>8.942190319384629</v>
+        <v>-39.16967746523936</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06939156493328003</v>
+        <v>0.06142558097370737</v>
       </c>
       <c r="H72" t="n">
-        <v>1.337168431259834</v>
+        <v>-10.29609360870279</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07409809735325949</v>
+        <v>0.0592708079751309</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5911458264455683</v>
+        <v>-19.53749554656576</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03404937627932737</v>
+        <v>0.03477261344182342</v>
       </c>
       <c r="H74" t="n">
-        <v>-45.98437113325605</v>
+        <v>-44.8370341062415</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0375227014421228</v>
+        <v>0.05116573100574489</v>
       </c>
       <c r="H75" t="n">
-        <v>41.76250045605183</v>
+        <v>93.30649676767473</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02309495327539633</v>
+        <v>0.006503147721690817</v>
       </c>
       <c r="H76" t="n">
-        <v>34.70602876326706</v>
+        <v>-62.06906359134755</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>0.003729231909466206</v>
+        <v>-0.00580742773704035</v>
       </c>
       <c r="H77" t="n">
-        <v>131.8893001891587</v>
+        <v>50.33969167666097</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009456760797857008</v>
+        <v>0.02379155737882306</v>
       </c>
       <c r="H78" t="n">
-        <v>272.382781848671</v>
+        <v>836.8499965914405</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.006378456180909644</v>
+        <v>0.004661444528561317</v>
       </c>
       <c r="H79" t="n">
-        <v>194.4664929940597</v>
+        <v>169.0371313073341</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02343227308396019</v>
+        <v>0.04097681956108225</v>
       </c>
       <c r="H80" t="n">
-        <v>89.8147647987892</v>
+        <v>231.9355889767876</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04935124588862141</v>
+        <v>0.04187962141625373</v>
       </c>
       <c r="H81" t="n">
-        <v>23.23614495797569</v>
+        <v>4.578577555800779</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06502200319163891</v>
+        <v>0.05687757779730897</v>
       </c>
       <c r="H82" t="n">
-        <v>65.50053471298229</v>
+        <v>44.77052500044051</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04506465064064764</v>
+        <v>0.03294026179083803</v>
       </c>
       <c r="H83" t="n">
-        <v>8.597822177285472</v>
+        <v>-20.61980639858678</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02378301773476914</v>
+        <v>0.03234997485579388</v>
       </c>
       <c r="H84" t="n">
-        <v>-34.92393313559289</v>
+        <v>-11.48267430756444</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03062055074154735</v>
+        <v>0.02308163493490828</v>
       </c>
       <c r="H85" t="n">
-        <v>-1.283618845892115</v>
+        <v>-25.5880310211809</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02716135877084849</v>
+        <v>0.04165477569599153</v>
       </c>
       <c r="H86" t="n">
-        <v>-16.71421271897798</v>
+        <v>27.7274387163018</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03590925861329135</v>
+        <v>0.05064041381101169</v>
       </c>
       <c r="H87" t="n">
-        <v>-33.49252093526827</v>
+        <v>-6.208972520568774</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06522478989765687</v>
+        <v>0.08575172942970705</v>
       </c>
       <c r="H88" t="n">
-        <v>-22.79838660889422</v>
+        <v>1.497787473728206</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1048347832666973</v>
+        <v>0.1126821631146233</v>
       </c>
       <c r="H89" t="n">
-        <v>16.08606758912274</v>
+        <v>24.77565933565563</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02369982645231962</v>
+        <v>-0.02516741023901601</v>
       </c>
       <c r="H90" t="n">
-        <v>52.3601060592534</v>
+        <v>49.41006184318986</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01417592277081696</v>
+        <v>-0.02039427493540407</v>
       </c>
       <c r="H91" t="n">
-        <v>30.89654175854147</v>
+        <v>0.5839020748064843</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02858919456512893</v>
+        <v>0.02478057782264566</v>
       </c>
       <c r="H92" t="n">
-        <v>-27.63806143487405</v>
+        <v>-37.27802838496926</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03257496073239248</v>
+        <v>0.03550558412271457</v>
       </c>
       <c r="H93" t="n">
-        <v>-33.81281892027224</v>
+        <v>-27.85825453552225</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08801768768737257</v>
+        <v>0.08722562669304644</v>
       </c>
       <c r="H94" t="n">
-        <v>-3.019791353543458</v>
+        <v>-3.892505037675929</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1012621122574431</v>
+        <v>0.094838750100788</v>
       </c>
       <c r="H95" t="n">
-        <v>-2.681185724471517</v>
+        <v>-8.85441255938802</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07499088562415576</v>
+        <v>-0.07947451843108511</v>
       </c>
       <c r="H96" t="n">
-        <v>33.06860357523239</v>
+        <v>29.06683986320315</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09933977630821123</v>
+        <v>-0.06754754094080542</v>
       </c>
       <c r="H97" t="n">
-        <v>7.148272798977404</v>
+        <v>36.86410340731614</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08793533800439551</v>
+        <v>0.08901172820865103</v>
       </c>
       <c r="H98" t="n">
-        <v>-9.095557770556111</v>
+        <v>-7.982823648419759</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.09850769729124859</v>
+        <v>0.1197941518611738</v>
       </c>
       <c r="H99" t="n">
-        <v>-13.51219129889769</v>
+        <v>5.176894543046486</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02206255602516873</v>
+        <v>0.03149828335217049</v>
       </c>
       <c r="H100" t="n">
-        <v>-42.57316476367198</v>
+        <v>-18.01282107890147</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03515233166999649</v>
+        <v>0.02808208322515804</v>
       </c>
       <c r="H101" t="n">
-        <v>74.31373762601122</v>
+        <v>39.25371816743836</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.007189654627913592</v>
+        <v>-0.008781238966044491</v>
       </c>
       <c r="H102" t="n">
-        <v>-202.0846464735361</v>
+        <v>-268.9575655495688</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.00703948713174722</v>
+        <v>0.005549415023803189</v>
       </c>
       <c r="H103" t="n">
-        <v>-8.466058336789294</v>
+        <v>185.5066800239313</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.08746789730040094</v>
+        <v>0.08736521853042588</v>
       </c>
       <c r="H104" t="n">
-        <v>90.56563502882766</v>
+        <v>90.34192958250743</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08676687263944165</v>
+        <v>0.08772676042312885</v>
       </c>
       <c r="H105" t="n">
-        <v>30.57610449376367</v>
+        <v>32.02064667596113</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2515619522889638</v>
+        <v>-0.2598285636164153</v>
       </c>
       <c r="H106" t="n">
-        <v>2.4054887336372</v>
+        <v>-0.8015776966824616</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.271283067780892</v>
+        <v>-0.272707619712882</v>
       </c>
       <c r="H107" t="n">
-        <v>6.266372356926933</v>
+        <v>5.774161687666821</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1536968776489979</v>
+        <v>0.1562660148704383</v>
       </c>
       <c r="H108" t="n">
-        <v>1.768216933228915</v>
+        <v>3.469334861466063</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1786975918421373</v>
+        <v>0.2136350799972331</v>
       </c>
       <c r="H109" t="n">
-        <v>-5.354277798588138</v>
+        <v>13.15007787993417</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04095850297482075</v>
+        <v>0.04955547466115352</v>
       </c>
       <c r="H110" t="n">
-        <v>-43.03024394185047</v>
+        <v>-31.07259548701605</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0809433394271234</v>
+        <v>0.1027654546484462</v>
       </c>
       <c r="H111" t="n">
-        <v>23.76146657707571</v>
+        <v>57.12723827267547</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.106913837550298</v>
+        <v>0.09858165497583918</v>
       </c>
       <c r="H112" t="n">
-        <v>26.99686548685239</v>
+        <v>17.09953980978438</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1093246763887382</v>
+        <v>0.08856207251848598</v>
       </c>
       <c r="H113" t="n">
-        <v>41.9423266106458</v>
+        <v>14.9850796542543</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>